--- a/data/pca/factorExposure/factorExposure_2014-10-20.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-10-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,33 +735,57 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.01225401059316073</v>
+        <v>-0.0170039276811238</v>
       </c>
       <c r="C2">
-        <v>-0.09357412807331712</v>
+        <v>-0.07035419975255179</v>
       </c>
       <c r="D2">
-        <v>-0.02761823190593519</v>
+        <v>0.02350936919609742</v>
       </c>
       <c r="E2">
-        <v>0.1662245944862283</v>
+        <v>-0.03838527110328792</v>
       </c>
       <c r="F2">
-        <v>-0.2035191202497516</v>
+        <v>-0.1641887490035167</v>
       </c>
       <c r="G2">
-        <v>-0.09192515068229525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.03062047186035407</v>
+      </c>
+      <c r="H2">
+        <v>0.05945501903677686</v>
+      </c>
+      <c r="I2">
+        <v>-0.002229201366609204</v>
+      </c>
+      <c r="J2">
+        <v>0.1683280846391595</v>
+      </c>
+      <c r="K2">
+        <v>0.1083026726756103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -769,33 +805,57 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.03450651053890137</v>
+        <v>-0.02029991180823555</v>
       </c>
       <c r="C4">
-        <v>-0.1692473283543916</v>
+        <v>-0.1513107415834745</v>
       </c>
       <c r="D4">
-        <v>0.03355462238482775</v>
+        <v>0.06344379152771092</v>
       </c>
       <c r="E4">
-        <v>0.08827344977697986</v>
+        <v>0.04152418254391736</v>
       </c>
       <c r="F4">
-        <v>0.03705719952387312</v>
+        <v>-0.0802048378323655</v>
       </c>
       <c r="G4">
-        <v>-0.01595874270221414</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.01392972102150588</v>
+      </c>
+      <c r="H4">
+        <v>0.1100138114317461</v>
+      </c>
+      <c r="I4">
+        <v>-0.02051026116429968</v>
+      </c>
+      <c r="J4">
+        <v>0.1580489787456439</v>
+      </c>
+      <c r="K4">
+        <v>-0.08071396904159028</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,263 +875,407 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03616781691852653</v>
+        <v>-0.04057116967236822</v>
       </c>
       <c r="C6">
-        <v>-0.06846742741393887</v>
+        <v>-0.08387011891403726</v>
       </c>
       <c r="D6">
-        <v>0.03497845196249685</v>
+        <v>0.02141111605256392</v>
       </c>
       <c r="E6">
-        <v>0.07112739264823045</v>
+        <v>-0.0374875993514401</v>
       </c>
       <c r="F6">
-        <v>-0.01809817516430469</v>
+        <v>-0.0488831128449614</v>
       </c>
       <c r="G6">
-        <v>0.0130924497050774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.0350502761541699</v>
+      </c>
+      <c r="H6">
+        <v>0.03284112774637263</v>
+      </c>
+      <c r="I6">
+        <v>0.07714032295069317</v>
+      </c>
+      <c r="J6">
+        <v>0.05418375232249249</v>
+      </c>
+      <c r="K6">
+        <v>0.05379648588068033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.01050957627853525</v>
+        <v>-0.0132395288813127</v>
       </c>
       <c r="C7">
-        <v>-0.05341248283291147</v>
+        <v>-0.06806451070208908</v>
       </c>
       <c r="D7">
-        <v>0.01160279112802469</v>
+        <v>0.02075946135473453</v>
       </c>
       <c r="E7">
-        <v>0.06362944391467283</v>
+        <v>0.02119162044608396</v>
       </c>
       <c r="F7">
-        <v>0.01157469202809876</v>
+        <v>-0.008278022671715998</v>
       </c>
       <c r="G7">
-        <v>-0.0297826575333259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.05131423367357746</v>
+      </c>
+      <c r="H7">
+        <v>0.1043853089246856</v>
+      </c>
+      <c r="I7">
+        <v>0.006143388330475913</v>
+      </c>
+      <c r="J7">
+        <v>0.03373596598778956</v>
+      </c>
+      <c r="K7">
+        <v>0.009976745282817508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.003139913496600133</v>
+        <v>0.00083713978268891</v>
       </c>
       <c r="C8">
-        <v>-0.07204649327036917</v>
+        <v>-0.06572805291929945</v>
       </c>
       <c r="D8">
-        <v>0.01855953379135689</v>
+        <v>0.0423485888988954</v>
       </c>
       <c r="E8">
-        <v>0.08250119077520175</v>
+        <v>0.00208760695702049</v>
       </c>
       <c r="F8">
-        <v>-0.02727740493039689</v>
+        <v>-0.0607221319316493</v>
       </c>
       <c r="G8">
-        <v>-0.0616738884818441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.02479125411760578</v>
+      </c>
+      <c r="H8">
+        <v>0.06200948652565264</v>
+      </c>
+      <c r="I8">
+        <v>-0.002731333243154537</v>
+      </c>
+      <c r="J8">
+        <v>0.006252299178422591</v>
+      </c>
+      <c r="K8">
+        <v>0.000822008821176149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.01686218838318599</v>
+        <v>-0.01374330521327249</v>
       </c>
       <c r="C9">
-        <v>-0.1373512848998166</v>
+        <v>-0.1141944803667406</v>
       </c>
       <c r="D9">
-        <v>0.030711879690595</v>
+        <v>0.04254465589660555</v>
       </c>
       <c r="E9">
-        <v>0.05168163551170452</v>
+        <v>0.009156651337387531</v>
       </c>
       <c r="F9">
-        <v>0.02014140148294779</v>
+        <v>-0.0342380560568752</v>
       </c>
       <c r="G9">
-        <v>0.02270063049933578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.008901187163602255</v>
+      </c>
+      <c r="H9">
+        <v>0.09747304960880279</v>
+      </c>
+      <c r="I9">
+        <v>0.01611158934067905</v>
+      </c>
+      <c r="J9">
+        <v>0.07591545997654607</v>
+      </c>
+      <c r="K9">
+        <v>-0.0590867565694476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2732878559087256</v>
+        <v>-0.2506777619066776</v>
       </c>
       <c r="C10">
-        <v>0.1035253632133469</v>
+        <v>0.09769463028562173</v>
       </c>
       <c r="D10">
-        <v>-0.02441263440781524</v>
+        <v>-0.006152855884135371</v>
       </c>
       <c r="E10">
-        <v>-0.02592020742044891</v>
+        <v>-0.01385774873113843</v>
       </c>
       <c r="F10">
-        <v>0.02914793835807629</v>
+        <v>-0.003728923297832254</v>
       </c>
       <c r="G10">
-        <v>0.02173470258675793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02025665550490107</v>
+      </c>
+      <c r="H10">
+        <v>0.04739763589853858</v>
+      </c>
+      <c r="I10">
+        <v>-0.1712836778857869</v>
+      </c>
+      <c r="J10">
+        <v>-0.08645033146831485</v>
+      </c>
+      <c r="K10">
+        <v>-0.06896343370964077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.01167081171709979</v>
+        <v>-0.01565679016270233</v>
       </c>
       <c r="C11">
-        <v>-0.06965174430431885</v>
+        <v>-0.08326089383343521</v>
       </c>
       <c r="D11">
-        <v>0.02078548299845763</v>
+        <v>0.03390880327005265</v>
       </c>
       <c r="E11">
-        <v>0.02826830303575232</v>
+        <v>0.008241577102227723</v>
       </c>
       <c r="F11">
-        <v>0.05563611707448723</v>
+        <v>0.006049966812820161</v>
       </c>
       <c r="G11">
-        <v>0.03575520310510921</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02080084392082683</v>
+      </c>
+      <c r="H11">
+        <v>0.03632160403703979</v>
+      </c>
+      <c r="I11">
+        <v>0.01417264013548472</v>
+      </c>
+      <c r="J11">
+        <v>-0.02243575518330717</v>
+      </c>
+      <c r="K11">
+        <v>-0.04253101824728035</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.007541166738178214</v>
+        <v>-0.01579803583362022</v>
       </c>
       <c r="C12">
-        <v>-0.06304433210559469</v>
+        <v>-0.06229636221312373</v>
       </c>
       <c r="D12">
-        <v>0.02420331632165945</v>
+        <v>0.02106555695502539</v>
       </c>
       <c r="E12">
-        <v>0.01886468200621689</v>
+        <v>-0.01829036167409895</v>
       </c>
       <c r="F12">
-        <v>0.02733018822393828</v>
+        <v>0.005472174453486815</v>
       </c>
       <c r="G12">
-        <v>0.06456595829958608</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.03141155131026791</v>
+      </c>
+      <c r="H12">
+        <v>0.0341375266996771</v>
+      </c>
+      <c r="I12">
+        <v>0.01070371393242578</v>
+      </c>
+      <c r="J12">
+        <v>-0.007639634976081351</v>
+      </c>
+      <c r="K12">
+        <v>-0.04064276782762651</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.01899931441113315</v>
+        <v>-0.004778276670520958</v>
       </c>
       <c r="C13">
-        <v>-0.1022203360685269</v>
+        <v>-0.1098393911979781</v>
       </c>
       <c r="D13">
-        <v>0.04145671738682614</v>
+        <v>0.03874536255055036</v>
       </c>
       <c r="E13">
-        <v>0.1387185094860494</v>
+        <v>-0.1023813212824198</v>
       </c>
       <c r="F13">
-        <v>0.02790624023736844</v>
+        <v>-0.130062599988151</v>
       </c>
       <c r="G13">
-        <v>0.1163951448708766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.1115186544404425</v>
+      </c>
+      <c r="H13">
+        <v>0.1258013941258245</v>
+      </c>
+      <c r="I13">
+        <v>-0.1901898835560361</v>
+      </c>
+      <c r="J13">
+        <v>-0.205361927096817</v>
+      </c>
+      <c r="K13">
+        <v>0.1114584926435712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01352453879585106</v>
+        <v>-0.0181731478061035</v>
       </c>
       <c r="C14">
-        <v>-0.05960655829712602</v>
+        <v>-0.07210229474723599</v>
       </c>
       <c r="D14">
-        <v>0.01476991736554213</v>
+        <v>0.04361333078279897</v>
       </c>
       <c r="E14">
-        <v>0.05274274333467664</v>
+        <v>-0.04487895144639229</v>
       </c>
       <c r="F14">
-        <v>-0.004901860206652271</v>
+        <v>-0.01986454212565382</v>
       </c>
       <c r="G14">
-        <v>0.04948382899013744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.07201822508870204</v>
+      </c>
+      <c r="H14">
+        <v>0.2069460762267275</v>
+      </c>
+      <c r="I14">
+        <v>0.03834712085392201</v>
+      </c>
+      <c r="J14">
+        <v>-0.1262253690159018</v>
+      </c>
+      <c r="K14">
+        <v>0.1225763901115031</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.006352751709386372</v>
+        <v>-0.0007759993578832297</v>
       </c>
       <c r="C15">
-        <v>-0.08585074575259123</v>
+        <v>-0.07695841308726244</v>
       </c>
       <c r="D15">
-        <v>0.02267273775717843</v>
+        <v>0.03243329035239072</v>
       </c>
       <c r="E15">
-        <v>0.1023463448217761</v>
+        <v>0.008292943513670261</v>
       </c>
       <c r="F15">
-        <v>0.006460786507031181</v>
+        <v>-0.03272991941411012</v>
       </c>
       <c r="G15">
-        <v>0.008085065740357259</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.04674303584908919</v>
+      </c>
+      <c r="H15">
+        <v>0.08503365159038925</v>
+      </c>
+      <c r="I15">
+        <v>0.02913318215993352</v>
+      </c>
+      <c r="J15">
+        <v>-0.05750068928372072</v>
+      </c>
+      <c r="K15">
+        <v>-0.003643621786411313</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.01194215508244224</v>
+        <v>-0.01541345835587658</v>
       </c>
       <c r="C16">
-        <v>-0.06689541198315335</v>
+        <v>-0.06688178728248245</v>
       </c>
       <c r="D16">
-        <v>0.0120625730278423</v>
+        <v>0.02519252509920503</v>
       </c>
       <c r="E16">
-        <v>0.02243256894031982</v>
+        <v>0.002997947504311441</v>
       </c>
       <c r="F16">
-        <v>0.02890964740172353</v>
+        <v>0.002443348421825081</v>
       </c>
       <c r="G16">
-        <v>0.03446339204358238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.01873869142234998</v>
+      </c>
+      <c r="H16">
+        <v>0.02866692545844847</v>
+      </c>
+      <c r="I16">
+        <v>0.01404367476718196</v>
+      </c>
+      <c r="J16">
+        <v>-0.006787686070174642</v>
+      </c>
+      <c r="K16">
+        <v>-0.02996242666256214</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1295,22 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,10 +1330,22 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1137,171 +1365,267 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01200828262633961</v>
+        <v>-0.01258005932495736</v>
       </c>
       <c r="C20">
-        <v>-0.08271348881938469</v>
+        <v>-0.08322566578316318</v>
       </c>
       <c r="D20">
-        <v>0.003806529741728436</v>
+        <v>0.02096353790485812</v>
       </c>
       <c r="E20">
-        <v>0.05516858562926567</v>
+        <v>0.02807202400332852</v>
       </c>
       <c r="F20">
-        <v>0.06887680250394811</v>
+        <v>-0.0004819035018289445</v>
       </c>
       <c r="G20">
-        <v>0.04238205484328596</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.04713313181915484</v>
+      </c>
+      <c r="H20">
+        <v>0.07280451159808252</v>
+      </c>
+      <c r="I20">
+        <v>0.01917576156983117</v>
+      </c>
+      <c r="J20">
+        <v>0.01567011847455899</v>
+      </c>
+      <c r="K20">
+        <v>-0.01383522345087058</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.005609446756927168</v>
+        <v>-0.01368014841513054</v>
       </c>
       <c r="C21">
-        <v>-0.09489443601575512</v>
+        <v>-0.07899601793065399</v>
       </c>
       <c r="D21">
-        <v>-0.02836703593307517</v>
+        <v>0.02287811087964174</v>
       </c>
       <c r="E21">
-        <v>0.03398481940275454</v>
+        <v>-0.08036778217720854</v>
       </c>
       <c r="F21">
-        <v>-0.03491268144061294</v>
+        <v>-0.02800468650082729</v>
       </c>
       <c r="G21">
-        <v>0.04235174558225476</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.003198948579545208</v>
+      </c>
+      <c r="H21">
+        <v>0.1521424621190228</v>
+      </c>
+      <c r="I21">
+        <v>-0.03762051803203221</v>
+      </c>
+      <c r="J21">
+        <v>-0.0527572950004827</v>
+      </c>
+      <c r="K21">
+        <v>0.0003715897452580837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>-0.05209445963496925</v>
+        <v>-0.005986671839743098</v>
       </c>
       <c r="C22">
-        <v>-0.1504693847131428</v>
+        <v>-0.1599819150861915</v>
       </c>
       <c r="D22">
-        <v>-0.1105011524619619</v>
+        <v>0.008307759363710988</v>
       </c>
       <c r="E22">
-        <v>0.2588422918615568</v>
+        <v>0.149798089252324</v>
       </c>
       <c r="F22">
-        <v>-0.0517220514776135</v>
+        <v>-0.4976159269708311</v>
       </c>
       <c r="G22">
-        <v>-0.3030244224561408</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>-0.07458514528661643</v>
+      </c>
+      <c r="H22">
+        <v>-0.3110784104948197</v>
+      </c>
+      <c r="I22">
+        <v>-0.03161103838654981</v>
+      </c>
+      <c r="J22">
+        <v>-0.213672330540398</v>
+      </c>
+      <c r="K22">
+        <v>-0.03977270760543533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>-0.05179633783345115</v>
+        <v>-0.01094912239740989</v>
       </c>
       <c r="C23">
-        <v>-0.1511316392022589</v>
+        <v>-0.1638155135409061</v>
       </c>
       <c r="D23">
-        <v>-0.1102191316956461</v>
+        <v>0.007163440232680965</v>
       </c>
       <c r="E23">
-        <v>0.2553908952324302</v>
+        <v>0.1433101944079691</v>
       </c>
       <c r="F23">
-        <v>-0.05109185576075093</v>
+        <v>-0.4819047834139074</v>
       </c>
       <c r="G23">
-        <v>-0.3008113560554922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>-0.07091264197899697</v>
+      </c>
+      <c r="H23">
+        <v>-0.2891980352271777</v>
+      </c>
+      <c r="I23">
+        <v>-0.02514339962729556</v>
+      </c>
+      <c r="J23">
+        <v>-0.2017274248187006</v>
+      </c>
+      <c r="K23">
+        <v>-0.04730624968958434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.005256603382934146</v>
+        <v>-0.01580984227847537</v>
       </c>
       <c r="C24">
-        <v>-0.07819396100115619</v>
+        <v>-0.07515282842025206</v>
       </c>
       <c r="D24">
-        <v>0.03662736676568919</v>
+        <v>0.03854197732525069</v>
       </c>
       <c r="E24">
-        <v>0.0267859426392791</v>
+        <v>0.00528916689957155</v>
       </c>
       <c r="F24">
-        <v>0.04011761787562853</v>
+        <v>0.006193708983220122</v>
       </c>
       <c r="G24">
-        <v>0.04967933116190775</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.02874219459709881</v>
+      </c>
+      <c r="H24">
+        <v>0.04731217723335338</v>
+      </c>
+      <c r="I24">
+        <v>0.01377858152003477</v>
+      </c>
+      <c r="J24">
+        <v>-0.01083747990531315</v>
+      </c>
+      <c r="K24">
+        <v>-0.04495347435062385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.007883701448377918</v>
+        <v>-0.0201588371964332</v>
       </c>
       <c r="C25">
-        <v>-0.0690260521800341</v>
+        <v>-0.07210263104729227</v>
       </c>
       <c r="D25">
-        <v>0.01108506072815611</v>
+        <v>0.02666044052406937</v>
       </c>
       <c r="E25">
-        <v>0.02526213351876818</v>
+        <v>0.00754187147474999</v>
       </c>
       <c r="F25">
-        <v>0.04956989930627349</v>
+        <v>0.00242638380753001</v>
       </c>
       <c r="G25">
-        <v>0.04262393381029364</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02978049424312882</v>
+      </c>
+      <c r="H25">
+        <v>0.03757637212139288</v>
+      </c>
+      <c r="I25">
+        <v>0.002055509750220822</v>
+      </c>
+      <c r="J25">
+        <v>-0.02529082542522498</v>
+      </c>
+      <c r="K25">
+        <v>-0.03546681793676583</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01372981588403244</v>
+        <v>-0.0239838786252896</v>
       </c>
       <c r="C26">
-        <v>-0.06319934038303146</v>
+        <v>-0.06335101863970777</v>
       </c>
       <c r="D26">
-        <v>0.03789023423410959</v>
+        <v>0.05727573218864437</v>
       </c>
       <c r="E26">
-        <v>0.02261223904662952</v>
+        <v>-0.002365459225913196</v>
       </c>
       <c r="F26">
-        <v>-0.007985248866852679</v>
+        <v>0.01407548543248663</v>
       </c>
       <c r="G26">
-        <v>0.03553780748207402</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.007579162843119431</v>
+      </c>
+      <c r="H26">
+        <v>0.1078403885547069</v>
+      </c>
+      <c r="I26">
+        <v>0.04474398467111346</v>
+      </c>
+      <c r="J26">
+        <v>0.1050463509317873</v>
+      </c>
+      <c r="K26">
+        <v>-0.07652671367683285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1321,217 +1645,337 @@
       <c r="G27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.353677884024629</v>
+        <v>-0.3200067463415783</v>
       </c>
       <c r="C28">
-        <v>0.1179056231808615</v>
+        <v>0.1123997506640873</v>
       </c>
       <c r="D28">
-        <v>-0.02784683158100996</v>
+        <v>-0.03175894275798731</v>
       </c>
       <c r="E28">
-        <v>-0.1065308676029492</v>
+        <v>-0.001199659603910449</v>
       </c>
       <c r="F28">
-        <v>-0.02243140648781795</v>
+        <v>-0.01818988603585606</v>
       </c>
       <c r="G28">
-        <v>0.01207950900084678</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.1139599928573263</v>
+      </c>
+      <c r="H28">
+        <v>0.06084288086016141</v>
+      </c>
+      <c r="I28">
+        <v>-0.2081037236681224</v>
+      </c>
+      <c r="J28">
+        <v>0.0144056288577853</v>
+      </c>
+      <c r="K28">
+        <v>0.03328507457918319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.01662140511465527</v>
+        <v>-0.01333944830312099</v>
       </c>
       <c r="C29">
-        <v>-0.05981400928166117</v>
+        <v>-0.07580156161210025</v>
       </c>
       <c r="D29">
-        <v>0.02745630918059205</v>
+        <v>0.04891470365313523</v>
       </c>
       <c r="E29">
-        <v>0.08335096162714455</v>
+        <v>-0.0513545130304582</v>
       </c>
       <c r="F29">
-        <v>0.01894641863610963</v>
+        <v>-0.03748295724700003</v>
       </c>
       <c r="G29">
-        <v>0.07380735458745814</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.1179905375175667</v>
+      </c>
+      <c r="H29">
+        <v>0.2905433298980769</v>
+      </c>
+      <c r="I29">
+        <v>0.04142964191783635</v>
+      </c>
+      <c r="J29">
+        <v>-0.1916944975987501</v>
+      </c>
+      <c r="K29">
+        <v>0.2226452240418329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.03642426798891604</v>
+        <v>-0.02769697455669232</v>
       </c>
       <c r="C30">
-        <v>-0.1782395536314024</v>
+        <v>-0.1488538151323426</v>
       </c>
       <c r="D30">
-        <v>0.04709808625110131</v>
+        <v>0.05451951716960962</v>
       </c>
       <c r="E30">
-        <v>0.06140599200936706</v>
+        <v>0.02201695914522055</v>
       </c>
       <c r="F30">
-        <v>0.005445713609404768</v>
+        <v>-0.06033547606921937</v>
       </c>
       <c r="G30">
-        <v>-0.03644174993418196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.006516052107109423</v>
+      </c>
+      <c r="H30">
+        <v>0.03077213444931708</v>
+      </c>
+      <c r="I30">
+        <v>0.04106016026891633</v>
+      </c>
+      <c r="J30">
+        <v>0.09071276977822951</v>
+      </c>
+      <c r="K30">
+        <v>-0.03044087998811932</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.002773100483485855</v>
+        <v>-0.01145654758105585</v>
       </c>
       <c r="C31">
-        <v>-0.09087972728766745</v>
+        <v>-0.09305809458240484</v>
       </c>
       <c r="D31">
-        <v>0.04041655000069484</v>
+        <v>0.04089145166850746</v>
       </c>
       <c r="E31">
-        <v>-0.05144491487685805</v>
+        <v>-0.005900343375722583</v>
       </c>
       <c r="F31">
-        <v>-0.01509013284667936</v>
+        <v>0.01958090706468756</v>
       </c>
       <c r="G31">
-        <v>0.003977133828385403</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.05585794714988079</v>
+      </c>
+      <c r="H31">
+        <v>0.02987896127700342</v>
+      </c>
+      <c r="I31">
+        <v>0.006813347077000953</v>
+      </c>
+      <c r="J31">
+        <v>-0.03159001086088209</v>
+      </c>
+      <c r="K31">
+        <v>-0.03515914632866345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.03321310595776349</v>
+        <v>-0.0233443220453976</v>
       </c>
       <c r="C32">
-        <v>-0.08886581903604637</v>
+        <v>-0.06475451982109759</v>
       </c>
       <c r="D32">
-        <v>-0.006046714539621455</v>
+        <v>0.02098201727656417</v>
       </c>
       <c r="E32">
-        <v>0.1633049786497234</v>
+        <v>-0.0592478380004568</v>
       </c>
       <c r="F32">
-        <v>-0.05588618788080983</v>
+        <v>-0.115646965732588</v>
       </c>
       <c r="G32">
-        <v>0.0346090127060724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.04606455257643219</v>
+      </c>
+      <c r="H32">
+        <v>0.1755611625550516</v>
+      </c>
+      <c r="I32">
+        <v>-0.2387487863981968</v>
+      </c>
+      <c r="J32">
+        <v>-0.01106809659114421</v>
+      </c>
+      <c r="K32">
+        <v>0.1754905382158027</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.01356022938966509</v>
+        <v>-0.01583005041958992</v>
       </c>
       <c r="C33">
-        <v>-0.09104323777172448</v>
+        <v>-0.1073521844061852</v>
       </c>
       <c r="D33">
-        <v>0.04334826058612726</v>
+        <v>0.04184737861678137</v>
       </c>
       <c r="E33">
-        <v>0.03995753302388973</v>
+        <v>0.007756832676683739</v>
       </c>
       <c r="F33">
-        <v>0.007929570587556022</v>
+        <v>-0.0221275751644574</v>
       </c>
       <c r="G33">
-        <v>0.03151213186623761</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.02761147202686949</v>
+      </c>
+      <c r="H33">
+        <v>0.0597289385915175</v>
+      </c>
+      <c r="I33">
+        <v>-0.01434755828177018</v>
+      </c>
+      <c r="J33">
+        <v>-0.001384915700133791</v>
+      </c>
+      <c r="K33">
+        <v>-0.03040568277201827</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.002183287294757824</v>
+        <v>-0.01563766261531594</v>
       </c>
       <c r="C34">
-        <v>-0.05405620509947466</v>
+        <v>-0.05309703698293021</v>
       </c>
       <c r="D34">
-        <v>0.01772088253117237</v>
+        <v>0.01991331469516802</v>
       </c>
       <c r="E34">
-        <v>0.0251442350880483</v>
+        <v>-0.002272665870706282</v>
       </c>
       <c r="F34">
-        <v>0.01659217241342333</v>
+        <v>0.004843785246763434</v>
       </c>
       <c r="G34">
-        <v>0.03942873162474309</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.02389692181023081</v>
+      </c>
+      <c r="H34">
+        <v>0.01191826257036066</v>
+      </c>
+      <c r="I34">
+        <v>0.004760023403240578</v>
+      </c>
+      <c r="J34">
+        <v>-0.01071578631780533</v>
+      </c>
+      <c r="K34">
+        <v>-0.03994060921133976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.003562353031443629</v>
+        <v>-0.008126740610011169</v>
       </c>
       <c r="C35">
-        <v>-0.01388728149743331</v>
+        <v>-0.03876048406206934</v>
       </c>
       <c r="D35">
-        <v>0.00178821869186385</v>
+        <v>0.01862214261455442</v>
       </c>
       <c r="E35">
-        <v>0.02210302381986126</v>
+        <v>-0.0120950655689622</v>
       </c>
       <c r="F35">
-        <v>0.009235658753431696</v>
+        <v>-0.01434173638910064</v>
       </c>
       <c r="G35">
-        <v>0.0178046968438187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.04340851860787658</v>
+      </c>
+      <c r="H35">
+        <v>0.1441954349574408</v>
+      </c>
+      <c r="I35">
+        <v>-1.707689978974292e-05</v>
+      </c>
+      <c r="J35">
+        <v>-0.1546981942443477</v>
+      </c>
+      <c r="K35">
+        <v>0.09923958648633979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.01007956077475903</v>
+        <v>-0.01517605380992907</v>
       </c>
       <c r="C36">
-        <v>-0.05216418927253107</v>
+        <v>-0.04835923109353854</v>
       </c>
       <c r="D36">
-        <v>0.04117115468777306</v>
+        <v>0.04514109737721992</v>
       </c>
       <c r="E36">
-        <v>0.0257205855241488</v>
+        <v>-0.0005001639670272135</v>
       </c>
       <c r="F36">
-        <v>0.001126199247864738</v>
+        <v>-0.004693898208898085</v>
       </c>
       <c r="G36">
-        <v>0.01933666639251648</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.004452687411741508</v>
+      </c>
+      <c r="H36">
+        <v>0.07321084217835955</v>
+      </c>
+      <c r="I36">
+        <v>0.01784419332215499</v>
+      </c>
+      <c r="J36">
+        <v>0.03945082444805963</v>
+      </c>
+      <c r="K36">
+        <v>-0.05470731455260842</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,102 +1995,162 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02369977557417615</v>
+        <v>-0.01230627240969416</v>
       </c>
       <c r="C38">
-        <v>-0.05117966923823896</v>
+        <v>-0.06116018989388007</v>
       </c>
       <c r="D38">
-        <v>0.02777356163520702</v>
+        <v>0.03656495506552226</v>
       </c>
       <c r="E38">
-        <v>0.02818281874836369</v>
+        <v>0.03334350591633739</v>
       </c>
       <c r="F38">
-        <v>0.02272186049900559</v>
+        <v>-0.01194415818402885</v>
       </c>
       <c r="G38">
-        <v>-0.001928280722031845</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.003412601318893528</v>
+      </c>
+      <c r="H38">
+        <v>0.08762897317069571</v>
+      </c>
+      <c r="I38">
+        <v>-0.05445433102281564</v>
+      </c>
+      <c r="J38">
+        <v>-0.03325975032916353</v>
+      </c>
+      <c r="K38">
+        <v>-0.06234388281588957</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.00253211901083687</v>
+        <v>-0.01559363655368517</v>
       </c>
       <c r="C39">
-        <v>-0.1379133674965697</v>
+        <v>-0.1300927711403992</v>
       </c>
       <c r="D39">
-        <v>0.02931113237871795</v>
+        <v>0.05161135812040273</v>
       </c>
       <c r="E39">
-        <v>0.06951409614851478</v>
+        <v>-0.001750357806209362</v>
       </c>
       <c r="F39">
-        <v>0.0448962209432494</v>
+        <v>-0.0117973227576311</v>
       </c>
       <c r="G39">
-        <v>0.04829014503665172</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04856729394803266</v>
+      </c>
+      <c r="H39">
+        <v>0.05009144487827442</v>
+      </c>
+      <c r="I39">
+        <v>0.06733697622483417</v>
+      </c>
+      <c r="J39">
+        <v>0.01628525762896502</v>
+      </c>
+      <c r="K39">
+        <v>-0.04583385819895745</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.01056897313816103</v>
+        <v>-0.01484119006779997</v>
       </c>
       <c r="C40">
-        <v>-0.03914515681046144</v>
+        <v>-0.0623365380734577</v>
       </c>
       <c r="D40">
-        <v>0.02248046318727942</v>
+        <v>0.03360159898514174</v>
       </c>
       <c r="E40">
-        <v>0.1482397813140435</v>
+        <v>-0.02397035991194596</v>
       </c>
       <c r="F40">
-        <v>0.003774434229261007</v>
+        <v>-0.07085216704724683</v>
       </c>
       <c r="G40">
-        <v>0.01312496731445851</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.119613167058432</v>
+      </c>
+      <c r="H40">
+        <v>0.0460909054295507</v>
+      </c>
+      <c r="I40">
+        <v>-0.02866020881797798</v>
+      </c>
+      <c r="J40">
+        <v>-0.2515934189066548</v>
+      </c>
+      <c r="K40">
+        <v>-0.1103796950689905</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.008454913638937647</v>
+        <v>-0.02097364340214682</v>
       </c>
       <c r="C41">
-        <v>-0.02124129912651541</v>
+        <v>-0.04850772104665809</v>
       </c>
       <c r="D41">
-        <v>0.001019182616795143</v>
+        <v>0.01513385370740694</v>
       </c>
       <c r="E41">
-        <v>-0.03047656914356147</v>
+        <v>0.001106024694247491</v>
       </c>
       <c r="F41">
-        <v>-0.00991203805524569</v>
+        <v>0.0229788923278052</v>
       </c>
       <c r="G41">
-        <v>-0.01416459805878626</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.00262740508006534</v>
+      </c>
+      <c r="H41">
+        <v>0.03018198870841018</v>
+      </c>
+      <c r="I41">
+        <v>-0.03225827768545009</v>
+      </c>
+      <c r="J41">
+        <v>-0.05401564627002588</v>
+      </c>
+      <c r="K41">
+        <v>-0.008687743103056856</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1666,56 +2170,92 @@
       <c r="G42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.003393123184124778</v>
+        <v>-0.01612099255932475</v>
       </c>
       <c r="C43">
-        <v>-0.01980327925425744</v>
+        <v>-0.04417256505223389</v>
       </c>
       <c r="D43">
-        <v>0.01157308273280114</v>
+        <v>0.02929344803405825</v>
       </c>
       <c r="E43">
-        <v>-0.0003696330862023922</v>
+        <v>0.01479110607074294</v>
       </c>
       <c r="F43">
-        <v>0.02082556325662986</v>
+        <v>0.009770641256585515</v>
       </c>
       <c r="G43">
-        <v>-0.004353695504459079</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.005680627124692923</v>
+      </c>
+      <c r="H43">
+        <v>0.04577507806997071</v>
+      </c>
+      <c r="I43">
+        <v>-0.005346048122605098</v>
+      </c>
+      <c r="J43">
+        <v>-0.04359000062582002</v>
+      </c>
+      <c r="K43">
+        <v>-0.001266135281403195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.02408279806768664</v>
+        <v>-0.01055213666623607</v>
       </c>
       <c r="C44">
-        <v>-0.08264692386422681</v>
+        <v>-0.09026606091565981</v>
       </c>
       <c r="D44">
-        <v>0.00216633481993501</v>
+        <v>0.04946267476812238</v>
       </c>
       <c r="E44">
-        <v>0.093208149268856</v>
+        <v>0.02920963116388169</v>
       </c>
       <c r="F44">
-        <v>0.02597584736305822</v>
+        <v>-0.07376935779370945</v>
       </c>
       <c r="G44">
-        <v>-0.02551085699916538</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.03948046632279037</v>
+      </c>
+      <c r="H44">
+        <v>0.05249924965381993</v>
+      </c>
+      <c r="I44">
+        <v>0.05517856720606402</v>
+      </c>
+      <c r="J44">
+        <v>0.06123709053641057</v>
+      </c>
+      <c r="K44">
+        <v>0.01569335870100103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,148 +2275,232 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>-0.001929606121593074</v>
+        <v>-0.003032954391909664</v>
       </c>
       <c r="C46">
-        <v>-0.06314770018488419</v>
+        <v>-0.06293530640548581</v>
       </c>
       <c r="D46">
-        <v>0.02857910629327424</v>
+        <v>0.02587344044061418</v>
       </c>
       <c r="E46">
-        <v>0.05581461874329239</v>
+        <v>-0.01125232399659039</v>
       </c>
       <c r="F46">
-        <v>0.01479156070107903</v>
+        <v>-0.0002379600199990253</v>
       </c>
       <c r="G46">
-        <v>0.03777308566493199</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.03704705929583243</v>
+      </c>
+      <c r="H46">
+        <v>0.1077601597621848</v>
+      </c>
+      <c r="I46">
+        <v>0.008275969483514231</v>
+      </c>
+      <c r="J46">
+        <v>-0.08326010008414508</v>
+      </c>
+      <c r="K46">
+        <v>0.04502037595340305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.0004284776071320769</v>
+        <v>-0.01972333143359654</v>
       </c>
       <c r="C47">
-        <v>-0.1097179877403154</v>
+        <v>-0.09299259357087135</v>
       </c>
       <c r="D47">
-        <v>0.03409037580034107</v>
+        <v>0.04244786589095106</v>
       </c>
       <c r="E47">
-        <v>-0.06290043539444265</v>
+        <v>-0.01552266257491853</v>
       </c>
       <c r="F47">
-        <v>-0.03289423155662208</v>
+        <v>0.03443735811718553</v>
       </c>
       <c r="G47">
-        <v>0.03788381242667578</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.024632617404542</v>
+      </c>
+      <c r="H47">
+        <v>0.06888909597732788</v>
+      </c>
+      <c r="I47">
+        <v>-0.03118815533239108</v>
+      </c>
+      <c r="J47">
+        <v>-0.02928941790443541</v>
+      </c>
+      <c r="K47">
+        <v>-0.02950815171287621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01568907415824039</v>
+        <v>-0.02141226082684919</v>
       </c>
       <c r="C48">
-        <v>-0.05297869203830115</v>
+        <v>-0.0551262562198938</v>
       </c>
       <c r="D48">
-        <v>0.05631447901539649</v>
+        <v>0.05331014532731587</v>
       </c>
       <c r="E48">
-        <v>0.009194847456643727</v>
+        <v>0.004218078921987203</v>
       </c>
       <c r="F48">
-        <v>0.009700100141774371</v>
+        <v>0.0004508895226674474</v>
       </c>
       <c r="G48">
-        <v>0.01891047712545494</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.005895733149083431</v>
+      </c>
+      <c r="H48">
+        <v>0.1031444795984832</v>
+      </c>
+      <c r="I48">
+        <v>0.02966002783523233</v>
+      </c>
+      <c r="J48">
+        <v>0.08431328590728562</v>
+      </c>
+      <c r="K48">
+        <v>-0.06920215680842805</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.005189912689669213</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.02211569377284723</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.002079779791441554</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.005084460679996477</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>0.03363928581551201</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.03578398591646187</v>
+      </c>
+      <c r="H49">
+        <v>-0.02361046545708278</v>
+      </c>
+      <c r="I49">
+        <v>0.04335185971078522</v>
+      </c>
+      <c r="J49">
+        <v>0.03053599054144778</v>
+      </c>
+      <c r="K49">
+        <v>-0.03177977469692055</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.003626069145617538</v>
+        <v>-0.01230505477840995</v>
       </c>
       <c r="C50">
-        <v>-0.08842959112543657</v>
+        <v>-0.08621934480414674</v>
       </c>
       <c r="D50">
-        <v>0.02333452341577025</v>
+        <v>0.02651510963879472</v>
       </c>
       <c r="E50">
-        <v>-0.01774444793997107</v>
+        <v>0.0008218060026173699</v>
       </c>
       <c r="F50">
-        <v>-0.009346292446120192</v>
+        <v>0.006198172659530511</v>
       </c>
       <c r="G50">
-        <v>-0.01965860029676574</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.03569599326159358</v>
+      </c>
+      <c r="H50">
+        <v>0.05963184305734862</v>
+      </c>
+      <c r="I50">
+        <v>-0.04326591422871772</v>
+      </c>
+      <c r="J50">
+        <v>-0.02495935771107096</v>
+      </c>
+      <c r="K50">
+        <v>-0.01646361037462615</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.00310369449892582</v>
+        <v>0.005665021597719531</v>
       </c>
       <c r="C51">
-        <v>-0.07286995242892878</v>
+        <v>-0.03928296382953828</v>
       </c>
       <c r="D51">
-        <v>-0.0136914673693396</v>
+        <v>0.01886820930478869</v>
       </c>
       <c r="E51">
-        <v>0.09211068908967003</v>
+        <v>-0.006411251114410548</v>
       </c>
       <c r="F51">
-        <v>-0.001568840984232972</v>
+        <v>-0.04187554101699538</v>
       </c>
       <c r="G51">
-        <v>-0.03235625670780391</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.01925379291712092</v>
+      </c>
+      <c r="H51">
+        <v>0.09958038139414116</v>
+      </c>
+      <c r="I51">
+        <v>0.02104324064912321</v>
+      </c>
+      <c r="J51">
+        <v>0.1112988484015905</v>
+      </c>
+      <c r="K51">
+        <v>-0.008199913798077654</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,102 +2520,162 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.0450279885466847</v>
+        <v>-0.05586149551292429</v>
       </c>
       <c r="C53">
-        <v>-0.1406266972620469</v>
+        <v>-0.1349569267797829</v>
       </c>
       <c r="D53">
-        <v>0.05931235042111266</v>
+        <v>0.05148819595151801</v>
       </c>
       <c r="E53">
-        <v>-0.1192891326224704</v>
+        <v>-0.01486534652182656</v>
       </c>
       <c r="F53">
-        <v>0.02736258861938811</v>
+        <v>0.08009439189810416</v>
       </c>
       <c r="G53">
-        <v>0.01742930893079062</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.0639042114964256</v>
+      </c>
+      <c r="H53">
+        <v>-0.02847917827150908</v>
+      </c>
+      <c r="I53">
+        <v>-0.04425918209435527</v>
+      </c>
+      <c r="J53">
+        <v>-0.01212397355471426</v>
+      </c>
+      <c r="K53">
+        <v>-0.0647502254283551</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.01485874247276133</v>
+        <v>-0.01754489598228571</v>
       </c>
       <c r="C54">
-        <v>-0.0697663850188381</v>
+        <v>-0.07636678677391388</v>
       </c>
       <c r="D54">
-        <v>0.007613592929693744</v>
+        <v>0.009762676158635032</v>
       </c>
       <c r="E54">
-        <v>-0.007410686118412116</v>
+        <v>-0.004559896263033808</v>
       </c>
       <c r="F54">
-        <v>0.02239663281041572</v>
+        <v>0.01426414685407621</v>
       </c>
       <c r="G54">
-        <v>0.01176878327095962</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.01370880616812637</v>
+      </c>
+      <c r="H54">
+        <v>0.05961482710209669</v>
+      </c>
+      <c r="I54">
+        <v>0.01915695233706874</v>
+      </c>
+      <c r="J54">
+        <v>-0.01982649701930288</v>
+      </c>
+      <c r="K54">
+        <v>0.008428973570874668</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.03009914155699956</v>
+        <v>-0.03155109857831152</v>
       </c>
       <c r="C55">
-        <v>-0.09690178979166258</v>
+        <v>-0.09055208555708152</v>
       </c>
       <c r="D55">
-        <v>0.05952778573699181</v>
+        <v>0.05134563424389746</v>
       </c>
       <c r="E55">
-        <v>-0.06329768529585918</v>
+        <v>-0.005463051773738475</v>
       </c>
       <c r="F55">
-        <v>0.001243592561303946</v>
+        <v>0.062158614148832</v>
       </c>
       <c r="G55">
-        <v>0.03169355198468393</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.03181019346854373</v>
+      </c>
+      <c r="H55">
+        <v>-0.02005168522691081</v>
+      </c>
+      <c r="I55">
+        <v>0.01055704912027495</v>
+      </c>
+      <c r="J55">
+        <v>-0.001676333797836044</v>
+      </c>
+      <c r="K55">
+        <v>-0.04846422073401891</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.03017827699551942</v>
+        <v>-0.04155291324399033</v>
       </c>
       <c r="C56">
-        <v>-0.1861207651852648</v>
+        <v>-0.1637558878991093</v>
       </c>
       <c r="D56">
-        <v>0.06481557033658811</v>
+        <v>0.07795865688250807</v>
       </c>
       <c r="E56">
-        <v>-0.153439889947179</v>
+        <v>-0.03949508230301912</v>
       </c>
       <c r="F56">
-        <v>-0.02142976168985794</v>
+        <v>0.1175592537233934</v>
       </c>
       <c r="G56">
-        <v>0.01235609733244522</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.1304114330749788</v>
+      </c>
+      <c r="H56">
+        <v>-0.04656993771758094</v>
+      </c>
+      <c r="I56">
+        <v>-0.03018340934776108</v>
+      </c>
+      <c r="J56">
+        <v>0.02217855461048737</v>
+      </c>
+      <c r="K56">
+        <v>-0.04525900737803242</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2011,286 +2695,442 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.03796076295652863</v>
+        <v>-0.01975281266849376</v>
       </c>
       <c r="C58">
-        <v>-0.2558337518693489</v>
+        <v>-0.1804647874614272</v>
       </c>
       <c r="D58">
-        <v>-0.1050143062489693</v>
+        <v>0.02683708070996917</v>
       </c>
       <c r="E58">
-        <v>0.2244610354856478</v>
+        <v>0.06934397818642787</v>
       </c>
       <c r="F58">
-        <v>-0.01785075579787472</v>
+        <v>-0.3207569995218758</v>
       </c>
       <c r="G58">
-        <v>-0.3812503116057454</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1361896530419029</v>
+      </c>
+      <c r="H58">
+        <v>0.03616257866433387</v>
+      </c>
+      <c r="I58">
+        <v>-0.002690550912588021</v>
+      </c>
+      <c r="J58">
+        <v>0.4048168583297059</v>
+      </c>
+      <c r="K58">
+        <v>0.2125142251163796</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2851571707430103</v>
+        <v>-0.287229730003437</v>
       </c>
       <c r="C59">
-        <v>0.01759433397264128</v>
+        <v>0.04325000158177408</v>
       </c>
       <c r="D59">
-        <v>-0.0404265548084995</v>
+        <v>-0.006743303705959796</v>
       </c>
       <c r="E59">
-        <v>0.0269514754696932</v>
+        <v>-0.01595194297509319</v>
       </c>
       <c r="F59">
-        <v>-0.04485409021885874</v>
+        <v>-0.04174441320342066</v>
       </c>
       <c r="G59">
-        <v>0.04335607060109067</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.0007723207066664978</v>
+      </c>
+      <c r="H59">
+        <v>-0.0248013316626159</v>
+      </c>
+      <c r="I59">
+        <v>-0.03436750787328629</v>
+      </c>
+      <c r="J59">
+        <v>-0.01976205020485724</v>
+      </c>
+      <c r="K59">
+        <v>-0.01961607171198394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1188035119116344</v>
+        <v>-0.1500774121150021</v>
       </c>
       <c r="C60">
-        <v>-0.1342767061273476</v>
+        <v>-0.1503247255191063</v>
       </c>
       <c r="D60">
-        <v>0.04738365526079017</v>
+        <v>0.03681977998342612</v>
       </c>
       <c r="E60">
-        <v>0.08134219744093012</v>
+        <v>-0.05466983776301262</v>
       </c>
       <c r="F60">
-        <v>0.1189999189804369</v>
+        <v>0.06660629415474047</v>
       </c>
       <c r="G60">
-        <v>0.2849429002097917</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.2818219110774334</v>
+      </c>
+      <c r="H60">
+        <v>-0.2322119292956933</v>
+      </c>
+      <c r="I60">
+        <v>0.02797451908575365</v>
+      </c>
+      <c r="J60">
+        <v>0.01062112202531152</v>
+      </c>
+      <c r="K60">
+        <v>0.08672347334729162</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.004175650381262669</v>
+        <v>-0.01836114620332</v>
       </c>
       <c r="C61">
-        <v>-0.09398597125315369</v>
+        <v>-0.1004622823391738</v>
       </c>
       <c r="D61">
-        <v>0.04617246828860541</v>
+        <v>0.05088925832883989</v>
       </c>
       <c r="E61">
-        <v>0.02583317047802236</v>
+        <v>-0.008236875464829655</v>
       </c>
       <c r="F61">
-        <v>0.04222629978303606</v>
+        <v>0.02408457473234729</v>
       </c>
       <c r="G61">
-        <v>0.07513384791466707</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.04254978053777878</v>
+      </c>
+      <c r="H61">
+        <v>0.05825809349643214</v>
+      </c>
+      <c r="I61">
+        <v>0.03301712009676739</v>
+      </c>
+      <c r="J61">
+        <v>-0.02032859873950517</v>
+      </c>
+      <c r="K61">
+        <v>-0.04303459860287132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.002787940720319548</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.008400089128141747</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.002023895761719976</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.004913969756760788</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>-0.01643476177809261</v>
       </c>
       <c r="G62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.02275210653059602</v>
+      </c>
+      <c r="H62">
+        <v>0.0002918678217162101</v>
+      </c>
+      <c r="I62">
+        <v>0.005097073252565027</v>
+      </c>
+      <c r="J62">
+        <v>-0.005125413368191205</v>
+      </c>
+      <c r="K62">
+        <v>-0.01961408340082781</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.001894712521890527</v>
+        <v>-0.02454223690063284</v>
       </c>
       <c r="C63">
-        <v>-0.0706674323219605</v>
+        <v>-0.07093009401926292</v>
       </c>
       <c r="D63">
-        <v>0.02360107952783227</v>
+        <v>0.05465624825346409</v>
       </c>
       <c r="E63">
-        <v>0.0030241705159525</v>
+        <v>-0.007691592995446351</v>
       </c>
       <c r="F63">
-        <v>0.02711996671128086</v>
+        <v>0.01408833930560234</v>
       </c>
       <c r="G63">
-        <v>0.02628665368501765</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01249363503602523</v>
+      </c>
+      <c r="H63">
+        <v>0.06440699397866267</v>
+      </c>
+      <c r="I63">
+        <v>0.01097430329159489</v>
+      </c>
+      <c r="J63">
+        <v>-0.01091726764011148</v>
+      </c>
+      <c r="K63">
+        <v>-0.06303314818272683</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>-0.001370956284693233</v>
+        <v>-0.01372675719329073</v>
       </c>
       <c r="C64">
-        <v>-0.09472619787879752</v>
+        <v>-0.09271620596033957</v>
       </c>
       <c r="D64">
-        <v>0.06610594393854655</v>
+        <v>0.0320624809795273</v>
       </c>
       <c r="E64">
-        <v>0.03642081024548163</v>
+        <v>0.03853886825541901</v>
       </c>
       <c r="F64">
-        <v>0.0157709959614965</v>
+        <v>-0.03266453162996741</v>
       </c>
       <c r="G64">
-        <v>0.01333783789227642</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.04052354457323727</v>
+      </c>
+      <c r="H64">
+        <v>0.04549478227362958</v>
+      </c>
+      <c r="I64">
+        <v>0.02398098249608397</v>
+      </c>
+      <c r="J64">
+        <v>-0.01680739081468369</v>
+      </c>
+      <c r="K64">
+        <v>-0.1126482790137414</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.03002639144816729</v>
+        <v>-0.03220196611817545</v>
       </c>
       <c r="C65">
-        <v>-0.06579066818078862</v>
+        <v>-0.08801272689138903</v>
       </c>
       <c r="D65">
-        <v>0.01723294397289944</v>
+        <v>0.01148281203160999</v>
       </c>
       <c r="E65">
-        <v>0.08160328673735424</v>
+        <v>0.02794906322839016</v>
       </c>
       <c r="F65">
-        <v>0.02978256784410119</v>
+        <v>-0.0279924184400904</v>
       </c>
       <c r="G65">
-        <v>0.02991988855008708</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.113824999090399</v>
+      </c>
+      <c r="H65">
+        <v>-0.0005031147259693308</v>
+      </c>
+      <c r="I65">
+        <v>0.08248576508020132</v>
+      </c>
+      <c r="J65">
+        <v>0.08104383307798452</v>
+      </c>
+      <c r="K65">
+        <v>0.03327563080219705</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>-0.003227145433078405</v>
+        <v>-0.01039270536209221</v>
       </c>
       <c r="C66">
-        <v>-0.1653334082192447</v>
+        <v>-0.1624833938958083</v>
       </c>
       <c r="D66">
-        <v>0.007792300360442366</v>
+        <v>0.04205191221986039</v>
       </c>
       <c r="E66">
-        <v>0.1182096230404038</v>
+        <v>-0.008075788509382722</v>
       </c>
       <c r="F66">
-        <v>0.02529183342724155</v>
+        <v>-0.0234115362021056</v>
       </c>
       <c r="G66">
-        <v>0.05929541259214176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.0436586407397017</v>
+      </c>
+      <c r="H66">
+        <v>0.0610734676969238</v>
+      </c>
+      <c r="I66">
+        <v>0.05142365795527604</v>
+      </c>
+      <c r="J66">
+        <v>0.01455911036157366</v>
+      </c>
+      <c r="K66">
+        <v>-0.03732410228993507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.0240466965193174</v>
+        <v>-0.02146783179071582</v>
       </c>
       <c r="C67">
-        <v>-0.0352903646163799</v>
+        <v>-0.05223705494619387</v>
       </c>
       <c r="D67">
-        <v>0.04981400164141613</v>
+        <v>0.03915711415585951</v>
       </c>
       <c r="E67">
-        <v>-0.01346105916752168</v>
+        <v>0.02510913724269081</v>
       </c>
       <c r="F67">
-        <v>0.03009225504844274</v>
+        <v>0.02315107415903144</v>
       </c>
       <c r="G67">
-        <v>0.01595506918797728</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0243125534854066</v>
+      </c>
+      <c r="H67">
+        <v>0.064368611375121</v>
+      </c>
+      <c r="I67">
+        <v>-0.04797781012305375</v>
+      </c>
+      <c r="J67">
+        <v>-0.04942530825532969</v>
+      </c>
+      <c r="K67">
+        <v>-0.0401840809299691</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2837622023110941</v>
+        <v>-0.2943883824416563</v>
       </c>
       <c r="C68">
-        <v>0.03673101792712103</v>
+        <v>0.059401656833809</v>
       </c>
       <c r="D68">
-        <v>-0.01701517270781297</v>
+        <v>-0.01948305058110045</v>
       </c>
       <c r="E68">
-        <v>-0.01337357902396254</v>
+        <v>-0.005490460104295667</v>
       </c>
       <c r="F68">
-        <v>-0.01743525980978516</v>
+        <v>-0.01801531241659525</v>
       </c>
       <c r="G68">
-        <v>-0.02605424914482785</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.03915921774060153</v>
+      </c>
+      <c r="H68">
+        <v>0.02529302363269671</v>
+      </c>
+      <c r="I68">
+        <v>-0.03961183230458593</v>
+      </c>
+      <c r="J68">
+        <v>0.01619883662992776</v>
+      </c>
+      <c r="K68">
+        <v>-0.06448321878165629</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.001871103351280529</v>
+        <v>-0.00640122978495458</v>
       </c>
       <c r="C69">
-        <v>-0.1001395679423835</v>
+        <v>-0.07185961612492169</v>
       </c>
       <c r="D69">
-        <v>0.06011947411233947</v>
+        <v>0.03019545005889727</v>
       </c>
       <c r="E69">
-        <v>-0.04364052381689468</v>
+        <v>-0.004890818926558302</v>
       </c>
       <c r="F69">
-        <v>-0.002174435568914061</v>
+        <v>0.02086849657580895</v>
       </c>
       <c r="G69">
-        <v>0.003377895589499025</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.0054742861730208</v>
+      </c>
+      <c r="H69">
+        <v>0.0551903318095181</v>
+      </c>
+      <c r="I69">
+        <v>-0.02443369632073024</v>
+      </c>
+      <c r="J69">
+        <v>0.007299832187576732</v>
+      </c>
+      <c r="K69">
+        <v>-0.03753915051015123</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,585 +3150,897 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.284435618457448</v>
+        <v>-0.2764420252688444</v>
       </c>
       <c r="C71">
-        <v>0.05617174132541266</v>
+        <v>0.0734471108781909</v>
       </c>
       <c r="D71">
-        <v>-0.02319844894227991</v>
+        <v>-0.01767146716609547</v>
       </c>
       <c r="E71">
-        <v>0.007243504338695651</v>
+        <v>0.03209248532611737</v>
       </c>
       <c r="F71">
-        <v>0.01098890275683507</v>
+        <v>-0.0438912157766127</v>
       </c>
       <c r="G71">
-        <v>-0.02872232181650586</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.02309145747363008</v>
+      </c>
+      <c r="H71">
+        <v>0.04787388290092296</v>
+      </c>
+      <c r="I71">
+        <v>-0.1235998581220685</v>
+      </c>
+      <c r="J71">
+        <v>0.04977585351291523</v>
+      </c>
+      <c r="K71">
+        <v>-0.04410773367517423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.0340347094452159</v>
+        <v>-0.05302434624730459</v>
       </c>
       <c r="C72">
-        <v>-0.1505567703974661</v>
+        <v>-0.1382686641830194</v>
       </c>
       <c r="D72">
-        <v>0.04456618558032728</v>
+        <v>0.03692144314787071</v>
       </c>
       <c r="E72">
-        <v>0.105004251542106</v>
+        <v>2.108059361993134e-05</v>
       </c>
       <c r="F72">
-        <v>0.09373187727512063</v>
+        <v>0.02421650908951075</v>
       </c>
       <c r="G72">
-        <v>0.05486997585149222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.05390075835236181</v>
+      </c>
+      <c r="H72">
+        <v>0.01922271372253949</v>
+      </c>
+      <c r="I72">
+        <v>0.1241607384011217</v>
+      </c>
+      <c r="J72">
+        <v>0.07195548266669499</v>
+      </c>
+      <c r="K72">
+        <v>-0.01980380045158723</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.07271867539704949</v>
+        <v>-0.1484109357970691</v>
       </c>
       <c r="C73">
-        <v>-0.1358619775841867</v>
+        <v>-0.195134321494226</v>
       </c>
       <c r="D73">
-        <v>0.0883156788191797</v>
+        <v>0.06889719170367559</v>
       </c>
       <c r="E73">
-        <v>0.07178410364183969</v>
+        <v>-0.05289350317254396</v>
       </c>
       <c r="F73">
-        <v>0.1906260926981556</v>
+        <v>0.1720436175874251</v>
       </c>
       <c r="G73">
-        <v>0.3842035706288121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.4240219143872689</v>
+      </c>
+      <c r="H73">
+        <v>-0.2928960471761484</v>
+      </c>
+      <c r="I73">
+        <v>-0.07083935890992407</v>
+      </c>
+      <c r="J73">
+        <v>0.08669541532387745</v>
+      </c>
+      <c r="K73">
+        <v>0.08595244451705186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01234654071839532</v>
+        <v>-0.03629972609379371</v>
       </c>
       <c r="C74">
-        <v>-0.1101544551499072</v>
+        <v>-0.1092449243524805</v>
       </c>
       <c r="D74">
-        <v>0.06820718876221842</v>
+        <v>0.04437918984637197</v>
       </c>
       <c r="E74">
-        <v>-0.09324997124556858</v>
+        <v>-0.0063501835595958</v>
       </c>
       <c r="F74">
-        <v>-0.01312507577029053</v>
+        <v>0.06255173812433182</v>
       </c>
       <c r="G74">
-        <v>0.01909530350890508</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05242084935453008</v>
+      </c>
+      <c r="H74">
+        <v>-0.008775171005557603</v>
+      </c>
+      <c r="I74">
+        <v>0.001423438301034659</v>
+      </c>
+      <c r="J74">
+        <v>0.02326757382880306</v>
+      </c>
+      <c r="K74">
+        <v>-0.06962057358510856</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.05212861723909561</v>
+        <v>-0.05820133854373311</v>
       </c>
       <c r="C75">
-        <v>-0.1719658585780456</v>
+        <v>-0.1753173225703382</v>
       </c>
       <c r="D75">
-        <v>0.09741015125482672</v>
+        <v>0.08370503586479798</v>
       </c>
       <c r="E75">
-        <v>-0.2394635532768202</v>
+        <v>0.03826191676493108</v>
       </c>
       <c r="F75">
-        <v>-0.01696552291020955</v>
+        <v>0.1653830317176413</v>
       </c>
       <c r="G75">
-        <v>-0.05863440221046051</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1951585934184015</v>
+      </c>
+      <c r="H75">
+        <v>-0.04483497987456946</v>
+      </c>
+      <c r="I75">
+        <v>-0.1269000189523918</v>
+      </c>
+      <c r="J75">
+        <v>-0.06420250287633236</v>
+      </c>
+      <c r="K75">
+        <v>-0.08596724469419681</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.03097437997620288</v>
+        <v>-0.04040987059939892</v>
       </c>
       <c r="C76">
-        <v>-0.1200989744778729</v>
+        <v>-0.1274301189029192</v>
       </c>
       <c r="D76">
-        <v>0.06349181541483902</v>
+        <v>0.07061759103536526</v>
       </c>
       <c r="E76">
-        <v>-0.0984021206445216</v>
+        <v>-0.007932471970996452</v>
       </c>
       <c r="F76">
-        <v>-0.004545187409119941</v>
+        <v>0.09409141493564829</v>
       </c>
       <c r="G76">
-        <v>0.0504359149629547</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05668307431377764</v>
+      </c>
+      <c r="H76">
+        <v>-0.01996166463526669</v>
+      </c>
+      <c r="I76">
+        <v>-0.002686998692357886</v>
+      </c>
+      <c r="J76">
+        <v>-0.02915767525447063</v>
+      </c>
+      <c r="K76">
+        <v>-0.1308267412233179</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.07459186099993712</v>
+        <v>-0.04533199769470205</v>
       </c>
       <c r="C77">
-        <v>-0.2674898728067872</v>
+        <v>-0.3626366397689166</v>
       </c>
       <c r="D77">
-        <v>-0.8598752016982074</v>
+        <v>-0.9153407604204976</v>
       </c>
       <c r="E77">
-        <v>-0.2722022685736041</v>
+        <v>0.03892565059469726</v>
       </c>
       <c r="F77">
-        <v>0.1973442670585843</v>
+        <v>0.09444751660169046</v>
       </c>
       <c r="G77">
-        <v>0.08606345434052265</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.02076017772752747</v>
+      </c>
+      <c r="H77">
+        <v>0.05636026987308235</v>
+      </c>
+      <c r="I77">
+        <v>-0.005086784363757606</v>
+      </c>
+      <c r="J77">
+        <v>-0.006742336847654263</v>
+      </c>
+      <c r="K77">
+        <v>-0.009651881813642857</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.03454255877293</v>
+        <v>-0.03294673559689808</v>
       </c>
       <c r="C78">
-        <v>-0.1442333681211415</v>
+        <v>-0.1125460404145491</v>
       </c>
       <c r="D78">
-        <v>0.06213208389710648</v>
+        <v>0.08749311938759442</v>
       </c>
       <c r="E78">
-        <v>0.04652043524650709</v>
+        <v>-0.041019229861055</v>
       </c>
       <c r="F78">
-        <v>-0.1710190888140861</v>
+        <v>-0.004702100024763557</v>
       </c>
       <c r="G78">
-        <v>-0.01912686333457791</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.09712294508430237</v>
+      </c>
+      <c r="H78">
+        <v>0.05402882603774913</v>
+      </c>
+      <c r="I78">
+        <v>0.1079754674527539</v>
+      </c>
+      <c r="J78">
+        <v>0.4233850217740819</v>
+      </c>
+      <c r="K78">
+        <v>0.08382575187975001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.0302720945458837</v>
+        <v>-0.05311492074884609</v>
       </c>
       <c r="C79">
-        <v>-0.2121089222202449</v>
+        <v>-0.1577943123986583</v>
       </c>
       <c r="D79">
-        <v>0.1141549719470867</v>
+        <v>0.06852877641551841</v>
       </c>
       <c r="E79">
-        <v>-0.2169383927656964</v>
+        <v>-0.02547776349310487</v>
       </c>
       <c r="F79">
-        <v>-0.1216060155799774</v>
+        <v>0.1097674160893204</v>
       </c>
       <c r="G79">
-        <v>-0.04434264453535522</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>-0.2313646635324437</v>
+      </c>
+      <c r="H79">
+        <v>-0.009214396224121573</v>
+      </c>
+      <c r="I79">
+        <v>-0.08022596273540293</v>
+      </c>
+      <c r="J79">
+        <v>0.0539039998957128</v>
+      </c>
+      <c r="K79">
+        <v>-0.06339954372431332</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.01046720072102282</v>
+        <v>-0.01822272145709782</v>
       </c>
       <c r="C80">
-        <v>-0.05401221966048093</v>
+        <v>-0.05504632468932286</v>
       </c>
       <c r="D80">
-        <v>0.0502551305820509</v>
+        <v>0.04070052736042254</v>
       </c>
       <c r="E80">
-        <v>-0.01069943741769922</v>
+        <v>-0.04536014603057197</v>
       </c>
       <c r="F80">
-        <v>-0.01605315748972521</v>
+        <v>-0.0330441278007375</v>
       </c>
       <c r="G80">
-        <v>0.02085983527007548</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04797728569087258</v>
+      </c>
+      <c r="H80">
+        <v>-0.03538119809507871</v>
+      </c>
+      <c r="I80">
+        <v>-0.05508370101707906</v>
+      </c>
+      <c r="J80">
+        <v>-0.07869725628901866</v>
+      </c>
+      <c r="K80">
+        <v>-0.04648686940044518</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>-0.007523157760782516</v>
+        <v>-0.01405716189753818</v>
       </c>
       <c r="C81">
-        <v>-0.1137920464787233</v>
+        <v>-0.1095373626211699</v>
       </c>
       <c r="D81">
-        <v>0.08447739735450092</v>
+        <v>0.05392527885708204</v>
       </c>
       <c r="E81">
-        <v>-0.1550941848060635</v>
+        <v>-0.016047442245839</v>
       </c>
       <c r="F81">
-        <v>-0.03129797655226175</v>
+        <v>0.06997411688743178</v>
       </c>
       <c r="G81">
-        <v>0.01789450437794151</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1167918096157228</v>
+      </c>
+      <c r="H81">
+        <v>0.03996563833031297</v>
+      </c>
+      <c r="I81">
+        <v>-0.05636437459581242</v>
+      </c>
+      <c r="J81">
+        <v>-0.01494607281677627</v>
+      </c>
+      <c r="K81">
+        <v>-0.1006727230282077</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.03175106085647881</v>
+        <v>-0.04423092287823498</v>
       </c>
       <c r="C82">
-        <v>-0.1143852376451109</v>
+        <v>-0.113443705742136</v>
       </c>
       <c r="D82">
-        <v>0.08212518234251043</v>
+        <v>0.06627085785570787</v>
       </c>
       <c r="E82">
-        <v>-0.1110863007331017</v>
+        <v>-0.01380397730562903</v>
       </c>
       <c r="F82">
-        <v>0.01619661563852976</v>
+        <v>0.08762668854325698</v>
       </c>
       <c r="G82">
-        <v>0.04397365082568224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>-0.0749491191420123</v>
+      </c>
+      <c r="H82">
+        <v>0.003159963105252531</v>
+      </c>
+      <c r="I82">
+        <v>-0.02330749275498474</v>
+      </c>
+      <c r="J82">
+        <v>-0.002697138221387771</v>
+      </c>
+      <c r="K82">
+        <v>-0.1062610420232988</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.001333294800214284</v>
+        <v>0.001317943442547872</v>
       </c>
       <c r="C83">
-        <v>-0.03234138525971134</v>
+        <v>0.0004580840237575666</v>
       </c>
       <c r="D83">
-        <v>-0.2036150912166843</v>
+        <v>-0.06898297600698056</v>
       </c>
       <c r="E83">
-        <v>0.07954109807385229</v>
+        <v>-0.9381366430940991</v>
       </c>
       <c r="F83">
-        <v>-0.834745535765179</v>
+        <v>-0.1924644907797093</v>
       </c>
       <c r="G83">
-        <v>0.3632189314347758</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.08737072814875231</v>
+      </c>
+      <c r="H83">
+        <v>-0.09351077090439111</v>
+      </c>
+      <c r="I83">
+        <v>0.05659214342506353</v>
+      </c>
+      <c r="J83">
+        <v>0.005104999368166364</v>
+      </c>
+      <c r="K83">
+        <v>-0.1059994959151233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>-0.001060643651665227</v>
+        <v>0.002169727142033138</v>
       </c>
       <c r="C84">
-        <v>-0.04916354308867488</v>
+        <v>-0.04359228317541117</v>
       </c>
       <c r="D84">
-        <v>0.02159542894726931</v>
+        <v>0.05994941987049685</v>
       </c>
       <c r="E84">
-        <v>0.08390680944070203</v>
+        <v>0.03751214373426275</v>
       </c>
       <c r="F84">
-        <v>0.01047200387924048</v>
+        <v>-0.08946314878367341</v>
       </c>
       <c r="G84">
-        <v>-0.1400198580050878</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>-0.04072066359191093</v>
+      </c>
+      <c r="H84">
+        <v>0.06625265576245334</v>
+      </c>
+      <c r="I84">
+        <v>0.1097601316094199</v>
+      </c>
+      <c r="J84">
+        <v>-0.04837919665599314</v>
+      </c>
+      <c r="K84">
+        <v>-0.09114469096131782</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.02586454045054395</v>
+        <v>-0.02706333807414019</v>
       </c>
       <c r="C85">
-        <v>-0.1464493949013269</v>
+        <v>-0.1222439830088883</v>
       </c>
       <c r="D85">
-        <v>0.08968405951688947</v>
+        <v>0.07897103638007687</v>
       </c>
       <c r="E85">
-        <v>-0.2055155861018703</v>
+        <v>-0.01669498015153236</v>
       </c>
       <c r="F85">
-        <v>-0.06481861956469831</v>
+        <v>0.1595733233129663</v>
       </c>
       <c r="G85">
-        <v>-0.01948325254945335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1686660991411033</v>
+      </c>
+      <c r="H85">
+        <v>-0.04193711401671243</v>
+      </c>
+      <c r="I85">
+        <v>-0.08268255267481613</v>
+      </c>
+      <c r="J85">
+        <v>-0.02048954276426521</v>
+      </c>
+      <c r="K85">
+        <v>-0.1819389610691253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01769199002546677</v>
+        <v>-0.01715042817417664</v>
       </c>
       <c r="C86">
-        <v>-0.06563368843778188</v>
+        <v>-0.08137598221373735</v>
       </c>
       <c r="D86">
-        <v>-0.03972643690526206</v>
+        <v>0.02063513300971959</v>
       </c>
       <c r="E86">
-        <v>0.05377106812118251</v>
+        <v>0.00933921609499223</v>
       </c>
       <c r="F86">
-        <v>0.03889156934287624</v>
+        <v>-0.08814930941876453</v>
       </c>
       <c r="G86">
-        <v>-0.02176417623908389</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.07431098140053459</v>
+      </c>
+      <c r="H86">
+        <v>0.02540203569496196</v>
+      </c>
+      <c r="I86">
+        <v>-0.1373608260799715</v>
+      </c>
+      <c r="J86">
+        <v>0.148635959830437</v>
+      </c>
+      <c r="K86">
+        <v>0.08284594252782682</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.05548865813720441</v>
+        <v>-0.02297825634389866</v>
       </c>
       <c r="C87">
-        <v>-0.1393734394427786</v>
+        <v>-0.1178484143151487</v>
       </c>
       <c r="D87">
-        <v>0.01242220159114234</v>
+        <v>0.01499513330226031</v>
       </c>
       <c r="E87">
-        <v>0.1074095533091081</v>
+        <v>0.01602915285823616</v>
       </c>
       <c r="F87">
-        <v>-0.02210838103650856</v>
+        <v>-0.07986402434532884</v>
       </c>
       <c r="G87">
-        <v>-0.001022152330559725</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.002241612923019606</v>
+      </c>
+      <c r="H87">
+        <v>0.03871985393045303</v>
+      </c>
+      <c r="I87">
+        <v>0.1039460536959954</v>
+      </c>
+      <c r="J87">
+        <v>0.0761715544587593</v>
+      </c>
+      <c r="K87">
+        <v>-0.08893237763575526</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.005176784735569521</v>
+        <v>-0.03550239332774875</v>
       </c>
       <c r="C88">
-        <v>-0.04849192823902484</v>
+        <v>-0.0697859904595468</v>
       </c>
       <c r="D88">
-        <v>0.05361040787368752</v>
+        <v>0.04328079109345949</v>
       </c>
       <c r="E88">
-        <v>-0.04296882785532589</v>
+        <v>0.01359853517185044</v>
       </c>
       <c r="F88">
-        <v>0.04617155365500963</v>
+        <v>0.01831436116907884</v>
       </c>
       <c r="G88">
-        <v>0.01342761385434625</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.02120560564351699</v>
+      </c>
+      <c r="H88">
+        <v>0.0003992587957242111</v>
+      </c>
+      <c r="I88">
+        <v>-0.02690138042124738</v>
+      </c>
+      <c r="J88">
+        <v>-0.07922876438045809</v>
+      </c>
+      <c r="K88">
+        <v>-0.08325044274868268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.393522405961611</v>
+        <v>-0.3941175867375505</v>
       </c>
       <c r="C89">
-        <v>0.09268064676484951</v>
+        <v>0.106219991221766</v>
       </c>
       <c r="D89">
-        <v>0.1070962494941625</v>
+        <v>-0.0297677576680599</v>
       </c>
       <c r="E89">
-        <v>0.03785346671354783</v>
+        <v>0.03651813865886459</v>
       </c>
       <c r="F89">
-        <v>-0.06488355739786622</v>
+        <v>-0.05480401361481241</v>
       </c>
       <c r="G89">
-        <v>-0.07082715321327766</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.003374565142228239</v>
+      </c>
+      <c r="H89">
+        <v>0.002597801680603204</v>
+      </c>
+      <c r="I89">
+        <v>0.7412997110800024</v>
+      </c>
+      <c r="J89">
+        <v>-0.05814274840809549</v>
+      </c>
+      <c r="K89">
+        <v>-0.00141086801693685</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3045327481894661</v>
+        <v>-0.3141157735504052</v>
       </c>
       <c r="C90">
-        <v>0.01699218565118161</v>
+        <v>0.06017104003494207</v>
       </c>
       <c r="D90">
-        <v>0.007740088877495568</v>
+        <v>-0.005747423856996551</v>
       </c>
       <c r="E90">
-        <v>0.02928683889084248</v>
+        <v>-0.01751061886288542</v>
       </c>
       <c r="F90">
-        <v>-0.05523208045680346</v>
+        <v>-0.02914919307423178</v>
       </c>
       <c r="G90">
-        <v>0.03538918897097151</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.0257971316063489</v>
+      </c>
+      <c r="H90">
+        <v>0.01227393832682786</v>
+      </c>
+      <c r="I90">
+        <v>-0.07992283218862944</v>
+      </c>
+      <c r="J90">
+        <v>0.02956785255011951</v>
+      </c>
+      <c r="K90">
+        <v>-0.01955129729180772</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02878411002162237</v>
+        <v>-0.05083186025544723</v>
       </c>
       <c r="C91">
-        <v>-0.1162782367431458</v>
+        <v>-0.1016000809864573</v>
       </c>
       <c r="D91">
-        <v>0.05050260898473969</v>
+        <v>0.0438601374470331</v>
       </c>
       <c r="E91">
-        <v>-0.126474995305132</v>
+        <v>-0.04286811309948856</v>
       </c>
       <c r="F91">
-        <v>-0.03950802557806379</v>
+        <v>0.07028124526068928</v>
       </c>
       <c r="G91">
-        <v>0.001312671592465639</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.09322646513936907</v>
+      </c>
+      <c r="H91">
+        <v>-0.02355594475752077</v>
+      </c>
+      <c r="I91">
+        <v>-0.01181522964070784</v>
+      </c>
+      <c r="J91">
+        <v>-0.04113577116163914</v>
+      </c>
+      <c r="K91">
+        <v>-0.04867600002109213</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.38126559534955</v>
+        <v>-0.3555267731873514</v>
       </c>
       <c r="C92">
-        <v>0.1119616166173008</v>
+        <v>0.124119676738014</v>
       </c>
       <c r="D92">
-        <v>-0.01063537775269031</v>
+        <v>-0.04905134535997952</v>
       </c>
       <c r="E92">
-        <v>0.005705811023396226</v>
+        <v>0.05202612120288502</v>
       </c>
       <c r="F92">
-        <v>0.09664408985383412</v>
+        <v>-0.05035590885272316</v>
       </c>
       <c r="G92">
-        <v>-0.0500772397106205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02006482886556682</v>
+      </c>
+      <c r="H92">
+        <v>0.08039783925573768</v>
+      </c>
+      <c r="I92">
+        <v>-0.1621751814628446</v>
+      </c>
+      <c r="J92">
+        <v>-0.004958116958957507</v>
+      </c>
+      <c r="K92">
+        <v>0.05278307007695397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3056609384767626</v>
+        <v>-0.311004012512935</v>
       </c>
       <c r="C93">
-        <v>0.08089465585732662</v>
+        <v>0.1098795322050606</v>
       </c>
       <c r="D93">
-        <v>0.02652283711134733</v>
+        <v>-0.003026823202788731</v>
       </c>
       <c r="E93">
-        <v>0.02074370178593803</v>
+        <v>0.002354038719153547</v>
       </c>
       <c r="F93">
-        <v>-0.03144799186277032</v>
+        <v>-0.03127702763240055</v>
       </c>
       <c r="G93">
-        <v>-0.03613352420211717</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.05168471064052267</v>
+      </c>
+      <c r="H93">
+        <v>0.03370027286650207</v>
+      </c>
+      <c r="I93">
+        <v>-0.1093217480274419</v>
+      </c>
+      <c r="J93">
+        <v>0.015627520518861</v>
+      </c>
+      <c r="K93">
+        <v>-0.03341242288596848</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.06238570163385758</v>
+        <v>-0.07557569442192293</v>
       </c>
       <c r="C94">
-        <v>-0.2283522817118394</v>
+        <v>-0.1816586672930428</v>
       </c>
       <c r="D94">
-        <v>0.1652361861024278</v>
+        <v>0.1045632418949149</v>
       </c>
       <c r="E94">
-        <v>-0.4220988146930353</v>
+        <v>-0.02542042092152466</v>
       </c>
       <c r="F94">
-        <v>-0.1697073417585198</v>
+        <v>0.236384760095053</v>
       </c>
       <c r="G94">
-        <v>-0.3008970032997548</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.4816291080296541</v>
+      </c>
+      <c r="H94">
+        <v>-0.217569113675334</v>
+      </c>
+      <c r="I94">
+        <v>0.1427371214168233</v>
+      </c>
+      <c r="J94">
+        <v>-0.2760615252876863</v>
+      </c>
+      <c r="K94">
+        <v>0.4919600811902845</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.04012661507232133</v>
+        <v>-0.03772385197778248</v>
       </c>
       <c r="C95">
-        <v>-0.08794441283850149</v>
+        <v>-0.1246759521488509</v>
       </c>
       <c r="D95">
-        <v>0.01781028276221642</v>
+        <v>0.05231077692682781</v>
       </c>
       <c r="E95">
-        <v>0.01117266448328171</v>
+        <v>0.02571270668905898</v>
       </c>
       <c r="F95">
-        <v>0.06665715782593074</v>
+        <v>0.05801556969716467</v>
       </c>
       <c r="G95">
-        <v>0.1656455676839008</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.09648428982623398</v>
+      </c>
+      <c r="H95">
+        <v>0.06926923652236894</v>
+      </c>
+      <c r="I95">
+        <v>0.1412476929934692</v>
+      </c>
+      <c r="J95">
+        <v>-0.2037827033347736</v>
+      </c>
+      <c r="K95">
+        <v>-0.3196892563347308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,79 +4060,127 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.01059835477567464</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-0.01287787624612305</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.01050774561154888</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>0.03417896546940389</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>-0.007176471641944565</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>0.03279891887797884</v>
+      </c>
+      <c r="H97">
+        <v>0.03231729725490989</v>
+      </c>
+      <c r="I97">
+        <v>0.02821414656673314</v>
+      </c>
+      <c r="J97">
+        <v>-0.007852765434883655</v>
+      </c>
+      <c r="K97">
+        <v>0.05001302561565543</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.07464531531769865</v>
+        <v>-0.1310755819476185</v>
       </c>
       <c r="C98">
-        <v>-0.145780540811232</v>
+        <v>-0.1629578583850957</v>
       </c>
       <c r="D98">
-        <v>0.07884417114466509</v>
+        <v>0.08138031116085086</v>
       </c>
       <c r="E98">
-        <v>0.09606367071770396</v>
+        <v>-0.05022331616485003</v>
       </c>
       <c r="F98">
-        <v>0.1065006572884882</v>
+        <v>0.1412063721800113</v>
       </c>
       <c r="G98">
-        <v>0.23185052444338</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.3624465308605598</v>
+      </c>
+      <c r="H98">
+        <v>-0.3170452040941165</v>
+      </c>
+      <c r="I98">
+        <v>-0.09281479932717845</v>
+      </c>
+      <c r="J98">
+        <v>0.09402675581645766</v>
+      </c>
+      <c r="K98">
+        <v>0.1921939044686363</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.01069506981142931</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.02436898343552616</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.008745460443425628</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.016022224093727</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>0.03591057564005457</v>
       </c>
       <c r="G99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>-0.01837994280626109</v>
+      </c>
+      <c r="H99">
+        <v>0.08296211601521153</v>
+      </c>
+      <c r="I99">
+        <v>0.01950662921148251</v>
+      </c>
+      <c r="J99">
+        <v>-0.0268535860335498</v>
+      </c>
+      <c r="K99">
+        <v>0.3451881121596662</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,56 +4200,92 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.01705947337172773</v>
+        <v>-0.01351618625498337</v>
       </c>
       <c r="C101">
-        <v>-0.05856118454402465</v>
+        <v>-0.07473237778225005</v>
       </c>
       <c r="D101">
-        <v>0.02625019818477082</v>
+        <v>0.047204235462714</v>
       </c>
       <c r="E101">
-        <v>0.0825160655572373</v>
+        <v>-0.0513328114305811</v>
       </c>
       <c r="F101">
-        <v>0.02012905421558093</v>
+        <v>-0.03772709012709771</v>
       </c>
       <c r="G101">
-        <v>0.07342916336909543</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1181435946440291</v>
+      </c>
+      <c r="H101">
+        <v>0.2895016661349802</v>
+      </c>
+      <c r="I101">
+        <v>0.04067769035401798</v>
+      </c>
+      <c r="J101">
+        <v>-0.1910497345356968</v>
+      </c>
+      <c r="K101">
+        <v>0.2252740023378749</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.009652019070260233</v>
+        <v>-0.00376121567679607</v>
       </c>
       <c r="C102">
-        <v>-0.06150290081249989</v>
+        <v>-0.0258212313355697</v>
       </c>
       <c r="D102">
-        <v>0.02243370195230858</v>
+        <v>0.007339501217145072</v>
       </c>
       <c r="E102">
-        <v>-0.06114251897648614</v>
+        <v>-0.00934882937834906</v>
       </c>
       <c r="F102">
-        <v>-0.02523847725500129</v>
+        <v>0.01859897646155155</v>
       </c>
       <c r="G102">
-        <v>0.001630238360390224</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.03565659953795636</v>
+      </c>
+      <c r="H102">
+        <v>0.00796341152707435</v>
+      </c>
+      <c r="I102">
+        <v>0.01443105743786987</v>
+      </c>
+      <c r="J102">
+        <v>0.003500466218184705</v>
+      </c>
+      <c r="K102">
+        <v>0.01816831448819176</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3069,10 +4305,22 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4338,18 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
